--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -729,6 +729,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -738,16 +741,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="81.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
@@ -1565,7 +1569,7 @@
     <hyperlink ref="H15" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId46"/>
   <tableParts count="1">
     <tablePart r:id="rId47"/>
   </tableParts>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="-15" yWindow="8325" windowWidth="25230" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>Column10</t>
   </si>
@@ -96,21 +96,9 @@
     <t>2 pin polar</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>22-23-2021</t>
-  </si>
-  <si>
     <t>Sparkfun</t>
   </si>
   <si>
-    <t>PRT-08232</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8232</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -186,12 +174,6 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/8233</t>
-  </si>
-  <si>
-    <t>PRT-08233</t>
-  </si>
-  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -273,18 +255,6 @@
     <t>3 pin polar</t>
   </si>
   <si>
-    <t>22-23-2051</t>
-  </si>
-  <si>
-    <t>PRT-08230</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8230</t>
-  </si>
-  <si>
-    <t>22-23-2031</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -304,6 +274,51 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PRT-08619</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8619?</t>
+  </si>
+  <si>
+    <t>Molex Inc</t>
+  </si>
+  <si>
+    <t>WM4200-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
+  </si>
+  <si>
+    <t>WM4201-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
+  </si>
+  <si>
+    <t>WM4203-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>14 pin</t>
+  </si>
+  <si>
+    <t>PRT-08113</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8113</t>
   </si>
 </sst>
 </file>
@@ -734,9 +749,8 @@
   </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -788,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -814,22 +828,22 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="1">
         <v>0.28999999999999998</v>
@@ -850,22 +864,22 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1">
         <v>0.2</v>
@@ -886,22 +900,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="I4" s="1">
         <v>0.52</v>
@@ -923,19 +937,19 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1">
         <v>0.69</v>
@@ -957,19 +971,19 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1">
         <v>0.43</v>
@@ -990,30 +1004,30 @@
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+      <c r="D7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="5">
+        <v>22232021</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="3">
         <v>8</v>
       </c>
       <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,33 +1035,33 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>88</v>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5">
+        <v>22232031</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I8" s="6">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.35</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1055,23 +1069,23 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>85</v>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22232051</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I9" s="6">
         <v>0.45</v>
@@ -1090,22 +1104,22 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1">
         <v>0.35</v>
@@ -1124,22 +1138,22 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I11" s="6">
         <v>0.08</v>
@@ -1158,22 +1172,22 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I12" s="6">
         <v>0.05</v>
@@ -1191,23 +1205,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6">
         <v>0.35</v>
@@ -1222,26 +1236,26 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6">
         <v>0.19</v>
@@ -1256,26 +1270,26 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I15" s="6">
         <v>3.31</v>
@@ -1289,29 +1303,63 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1343,7 +1391,7 @@
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1356,7 +1404,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>16.36</v>
+        <v>27.759999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1539,39 +1587,45 @@
     <hyperlink ref="E6" r:id="rId15" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
     <hyperlink ref="G6" r:id="rId16" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
     <hyperlink ref="H6" r:id="rId17"/>
-    <hyperlink ref="G7" r:id="rId18" display="PRT-08232"/>
-    <hyperlink ref="H7" r:id="rId19"/>
-    <hyperlink ref="D10" r:id="rId20" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="E10" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="G10" r:id="rId22" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="H10" r:id="rId23"/>
-    <hyperlink ref="D11" r:id="rId24" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId25" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="G11" r:id="rId26" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D12" r:id="rId27" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="E12" r:id="rId28" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="G12" r:id="rId29" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="H11" r:id="rId30"/>
-    <hyperlink ref="H12" r:id="rId31"/>
-    <hyperlink ref="H13" r:id="rId32"/>
-    <hyperlink ref="G13" r:id="rId33"/>
-    <hyperlink ref="D14" r:id="rId34" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="E14" r:id="rId35" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="G14" r:id="rId36" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="H14" r:id="rId37"/>
-    <hyperlink ref="H9" r:id="rId38"/>
-    <hyperlink ref="G9" r:id="rId39"/>
-    <hyperlink ref="H8" r:id="rId40"/>
-    <hyperlink ref="G8" r:id="rId41"/>
-    <hyperlink ref="D15" r:id="rId42" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="E15" r:id="rId43" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="G15" r:id="rId44" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="H15" r:id="rId45"/>
+    <hyperlink ref="D10" r:id="rId18" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="E10" r:id="rId19" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="G10" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="H10" r:id="rId21"/>
+    <hyperlink ref="D11" r:id="rId22" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId23" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="G11" r:id="rId24" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D12" r:id="rId25" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="E12" r:id="rId26" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="G12" r:id="rId27" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="H11" r:id="rId28"/>
+    <hyperlink ref="H12" r:id="rId29"/>
+    <hyperlink ref="H13" r:id="rId30"/>
+    <hyperlink ref="G13" r:id="rId31"/>
+    <hyperlink ref="D14" r:id="rId32" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="E14" r:id="rId33" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="G14" r:id="rId34" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="H14" r:id="rId35"/>
+    <hyperlink ref="D15" r:id="rId36" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
+    <hyperlink ref="E15" r:id="rId37" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="G15" r:id="rId38" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="H15" r:id="rId39"/>
+    <hyperlink ref="G16" r:id="rId40"/>
+    <hyperlink ref="E7" r:id="rId41" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D7" r:id="rId42" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId43" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D8" r:id="rId44" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E8" r:id="rId45" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="G8" r:id="rId46" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="D9" r:id="rId47" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E9" r:id="rId48" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G9" r:id="rId49" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H9" r:id="rId50"/>
+    <hyperlink ref="G17" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId46"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId52"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId53"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="8325" windowWidth="25230" windowHeight="4215"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>Column10</t>
   </si>
@@ -96,9 +96,21 @@
     <t>2 pin polar</t>
   </si>
   <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>22-23-2021</t>
+  </si>
+  <si>
     <t>Sparkfun</t>
   </si>
   <si>
+    <t>PRT-08232</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8232</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -174,6 +186,12 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
+    <t>https://www.sparkfun.com/products/8233</t>
+  </si>
+  <si>
+    <t>PRT-08233</t>
+  </si>
+  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -255,6 +273,18 @@
     <t>3 pin polar</t>
   </si>
   <si>
+    <t>22-23-2051</t>
+  </si>
+  <si>
+    <t>PRT-08230</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8230</t>
+  </si>
+  <si>
+    <t>22-23-2031</t>
+  </si>
+  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -274,51 +304,6 @@
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>Protoboard</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
-    <t>PRT-08619</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8619?</t>
-  </si>
-  <si>
-    <t>Molex Inc</t>
-  </si>
-  <si>
-    <t>WM4200-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
-  </si>
-  <si>
-    <t>WM4201-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
-  </si>
-  <si>
-    <t>WM4203-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
-  </si>
-  <si>
-    <t>Socket</t>
-  </si>
-  <si>
-    <t>14 pin</t>
-  </si>
-  <si>
-    <t>PRT-08113</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8113</t>
   </si>
 </sst>
 </file>
@@ -749,8 +734,9 @@
   </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -802,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -828,22 +814,22 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1">
         <v>0.28999999999999998</v>
@@ -864,22 +850,22 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1">
         <v>0.2</v>
@@ -900,22 +886,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1">
         <v>0.52</v>
@@ -937,19 +923,19 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1">
         <v>0.69</v>
@@ -971,19 +957,19 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1">
         <v>0.43</v>
@@ -1004,30 +990,30 @@
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="5">
-        <v>22232021</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I7" s="4">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="J7" s="3">
         <v>8</v>
       </c>
       <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1035,33 +1021,33 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="5">
-        <v>22232031</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.89999999999999991</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1069,23 +1055,23 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="5">
-        <v>22232051</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I9" s="6">
         <v>0.45</v>
@@ -1104,22 +1090,22 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1">
         <v>0.35</v>
@@ -1138,22 +1124,22 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6">
         <v>0.08</v>
@@ -1172,22 +1158,22 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I12" s="6">
         <v>0.05</v>
@@ -1205,23 +1191,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I13" s="6">
         <v>0.35</v>
@@ -1236,26 +1222,26 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I14" s="6">
         <v>0.19</v>
@@ -1270,26 +1256,26 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I15" s="6">
         <v>3.31</v>
@@ -1303,63 +1289,29 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="I16" s="6">
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="I17" s="6">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1391,7 +1343,7 @@
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1404,7 +1356,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>27.759999999999998</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1587,45 +1539,39 @@
     <hyperlink ref="E6" r:id="rId15" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
     <hyperlink ref="G6" r:id="rId16" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
     <hyperlink ref="H6" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="E10" r:id="rId19" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="G10" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="H10" r:id="rId21"/>
-    <hyperlink ref="D11" r:id="rId22" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId23" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="G11" r:id="rId24" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D12" r:id="rId25" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="E12" r:id="rId26" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="G12" r:id="rId27" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="H11" r:id="rId28"/>
-    <hyperlink ref="H12" r:id="rId29"/>
-    <hyperlink ref="H13" r:id="rId30"/>
-    <hyperlink ref="G13" r:id="rId31"/>
-    <hyperlink ref="D14" r:id="rId32" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="E14" r:id="rId33" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="G14" r:id="rId34" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="H14" r:id="rId35"/>
-    <hyperlink ref="D15" r:id="rId36" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="E15" r:id="rId37" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="G15" r:id="rId38" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="H15" r:id="rId39"/>
-    <hyperlink ref="G16" r:id="rId40"/>
-    <hyperlink ref="E7" r:id="rId41" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D7" r:id="rId42" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId43" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D8" r:id="rId44" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E8" r:id="rId45" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G8" r:id="rId46" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="D9" r:id="rId47" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E9" r:id="rId48" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G9" r:id="rId49" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H9" r:id="rId50"/>
-    <hyperlink ref="G17" r:id="rId51"/>
+    <hyperlink ref="G7" r:id="rId18" display="PRT-08232"/>
+    <hyperlink ref="H7" r:id="rId19"/>
+    <hyperlink ref="D10" r:id="rId20" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="E10" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="G10" r:id="rId22" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="H10" r:id="rId23"/>
+    <hyperlink ref="D11" r:id="rId24" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId25" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="G11" r:id="rId26" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D12" r:id="rId27" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="E12" r:id="rId28" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="G12" r:id="rId29" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="H11" r:id="rId30"/>
+    <hyperlink ref="H12" r:id="rId31"/>
+    <hyperlink ref="H13" r:id="rId32"/>
+    <hyperlink ref="G13" r:id="rId33"/>
+    <hyperlink ref="D14" r:id="rId34" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="E14" r:id="rId35" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="G14" r:id="rId36" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="H14" r:id="rId37"/>
+    <hyperlink ref="H9" r:id="rId38"/>
+    <hyperlink ref="G9" r:id="rId39"/>
+    <hyperlink ref="H8" r:id="rId40"/>
+    <hyperlink ref="G8" r:id="rId41"/>
+    <hyperlink ref="D15" r:id="rId42" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
+    <hyperlink ref="E15" r:id="rId43" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="G15" r:id="rId44" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="H15" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId52"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -749,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1401,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <f>SUM(Table3[Quantity])</f>
+        <v>55</v>
+      </c>
       <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
         <v>27.759999999999998</v>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -747,10 +747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
     <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -885,14 +885,17 @@
         <v>0.2</v>
       </c>
       <c r="J3" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -928,7 +931,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -962,7 +965,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -996,7 +999,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1023,14 +1026,17 @@
         <v>0.2</v>
       </c>
       <c r="J7" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1057,14 +1063,17 @@
         <v>0.3</v>
       </c>
       <c r="J8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1261,14 +1270,17 @@
         <v>0.19</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K14" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -1403,11 +1415,11 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7">
         <f>SUM(Table3[Quantity])</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>27.759999999999998</v>
+        <v>29.979999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -312,13 +312,13 @@
     <t>Socket</t>
   </si>
   <si>
-    <t>14 pin</t>
-  </si>
-  <si>
-    <t>PRT-08113</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8113</t>
+    <t>28 pin</t>
+  </si>
+  <si>
+    <t>PRT-09175</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9175</t>
   </si>
 </sst>
 </file>
@@ -747,10 +747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q182"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
     <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -891,11 +891,8 @@
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -924,14 +921,14 @@
         <v>0.52</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -965,7 +962,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -999,7 +996,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1032,11 +1029,8 @@
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>1.8</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1069,11 +1063,8 @@
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>1.2</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1098,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1132,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1166,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1200,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1234,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1276,11 +1267,8 @@
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>2.2800000000000002</v>
       </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -1364,14 +1352,14 @@
         <v>100</v>
       </c>
       <c r="I17" s="6">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,7 +1407,7 @@
       </c>
       <c r="K21" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>29.979999999999997</v>
+        <v>29.549999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1626,7 @@
     <hyperlink ref="G17" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId52"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId52"/>
   <tableParts count="1">
     <tablePart r:id="rId53"/>
   </tableParts>

--- a/Documentation/prox_system/prox_module_BOM.xlsx
+++ b/Documentation/prox_system/prox_module_BOM.xlsx
@@ -749,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,11 +1624,12 @@
     <hyperlink ref="G9" r:id="rId49" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
     <hyperlink ref="H9" r:id="rId50"/>
     <hyperlink ref="G17" r:id="rId51"/>
+    <hyperlink ref="H5" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="landscape" r:id="rId52"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
